--- a/assets/docs/Format Tenaga Ahli.xlsx
+++ b/assets/docs/Format Tenaga Ahli.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vandoc/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6867DF6C-CB3D-D947-BA74-7245D569BD20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A6E5EF-6E1B-1B4C-AA68-7B199981A97F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{5EDCC650-CF7F-BF4C-A922-75EAF64FC947}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kegiatan" sheetId="1" r:id="rId1"/>
+    <sheet name="Tenaga Ahli" sheetId="1" r:id="rId1"/>
     <sheet name="Jenis Kelamin" sheetId="2" r:id="rId2"/>
     <sheet name="Provinsi" sheetId="5" r:id="rId3"/>
     <sheet name="Kota" sheetId="7" r:id="rId4"/>
@@ -2264,7 +2264,7 @@
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assets/docs/Format Tenaga Ahli.xlsx
+++ b/assets/docs/Format Tenaga Ahli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vandoc/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pu-web\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A6E5EF-6E1B-1B4C-AA68-7B199981A97F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10C1431-DE5E-4EFB-BA34-4B9EE74B9E5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{5EDCC650-CF7F-BF4C-A922-75EAF64FC947}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{5EDCC650-CF7F-BF4C-A922-75EAF64FC947}"/>
   </bookViews>
   <sheets>
     <sheet name="Tenaga Ahli" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Kategori Tenaga Ahli" sheetId="3" r:id="rId5"/>
     <sheet name="Instruktur" sheetId="4" r:id="rId6"/>
     <sheet name="Asesor" sheetId="8" r:id="rId7"/>
+    <sheet name="Pendidikan" sheetId="9" r:id="rId8"/>
+    <sheet name="PNS" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="606">
   <si>
     <t>Provinsi</t>
   </si>
@@ -1798,6 +1800,57 @@
   </si>
   <si>
     <t>Tidak</t>
+  </si>
+  <si>
+    <t>NPWP</t>
+  </si>
+  <si>
+    <t>Pendidikan</t>
+  </si>
+  <si>
+    <t>PNS</t>
+  </si>
+  <si>
+    <t>SD / MI</t>
+  </si>
+  <si>
+    <t>SMP / MTs</t>
+  </si>
+  <si>
+    <t>SMA / MA / SMK</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Golongan I</t>
+  </si>
+  <si>
+    <t>Golongan II</t>
+  </si>
+  <si>
+    <t>Golongan III</t>
+  </si>
+  <si>
+    <t>Golongan IV</t>
   </si>
 </sst>
 </file>
@@ -2261,13 +2314,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA67DDE-3B7B-2A46-AB16-00860512A2F1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
@@ -2283,9 +2336,12 @@
     <col min="12" max="12" width="24.5" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="20.5" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" customWidth="1"/>
+    <col min="17" max="17" width="15.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>555</v>
       </c>
@@ -2328,8 +2384,17 @@
       <c r="N1" s="3" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O1" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>567</v>
       </c>
@@ -2372,8 +2437,17 @@
       <c r="N2" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O2" s="12">
+        <v>1</v>
+      </c>
+      <c r="P2" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>568</v>
       </c>
@@ -2408,7 +2482,7 @@
         <v>6281234422890</v>
       </c>
       <c r="L3" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" s="12">
         <v>0</v>
@@ -2416,8 +2490,17 @@
       <c r="N3" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O3" s="12">
+        <v>4</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>569</v>
       </c>
@@ -2460,8 +2543,17 @@
       <c r="N4" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O4" s="12">
+        <v>2</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>570</v>
       </c>
@@ -2504,8 +2596,17 @@
       <c r="N5" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="10" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="O5" s="12">
+        <v>2</v>
+      </c>
+      <c r="P5" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="10" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>553</v>
       </c>
@@ -2521,7 +2622,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -2533,117 +2634,117 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="60" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
@@ -2667,12 +2768,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>552</v>
       </c>
@@ -2680,7 +2781,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>0</v>
       </c>
@@ -2688,7 +2789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -2696,7 +2797,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -2704,15 +2805,15 @@
         <v>584</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
     </row>
@@ -2729,12 +2830,12 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>552</v>
       </c>
@@ -2742,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2750,7 +2851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>11</v>
       </c>
@@ -2758,7 +2859,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>12</v>
       </c>
@@ -2766,7 +2867,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>13</v>
       </c>
@@ -2774,7 +2875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>14</v>
       </c>
@@ -2782,7 +2883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>15</v>
       </c>
@@ -2790,7 +2891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>16</v>
       </c>
@@ -2798,7 +2899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>17</v>
       </c>
@@ -2806,7 +2907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>18</v>
       </c>
@@ -2814,7 +2915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>19</v>
       </c>
@@ -2822,7 +2923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>21</v>
       </c>
@@ -2830,7 +2931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>31</v>
       </c>
@@ -2838,7 +2939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>32</v>
       </c>
@@ -2846,7 +2947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>33</v>
       </c>
@@ -2854,7 +2955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>34</v>
       </c>
@@ -2862,7 +2963,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>35</v>
       </c>
@@ -2870,7 +2971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>36</v>
       </c>
@@ -2878,7 +2979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>51</v>
       </c>
@@ -2886,7 +2987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>52</v>
       </c>
@@ -2894,7 +2995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>53</v>
       </c>
@@ -2902,7 +3003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>61</v>
       </c>
@@ -2910,7 +3011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>62</v>
       </c>
@@ -2918,7 +3019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>63</v>
       </c>
@@ -2926,7 +3027,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>64</v>
       </c>
@@ -2934,7 +3035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>65</v>
       </c>
@@ -2942,7 +3043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>71</v>
       </c>
@@ -2950,7 +3051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>72</v>
       </c>
@@ -2958,7 +3059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>73</v>
       </c>
@@ -2966,7 +3067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>74</v>
       </c>
@@ -2974,7 +3075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>75</v>
       </c>
@@ -2982,7 +3083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>76</v>
       </c>
@@ -2990,7 +3091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>81</v>
       </c>
@@ -2998,7 +3099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>82</v>
       </c>
@@ -3006,7 +3107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>91</v>
       </c>
@@ -3014,7 +3115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>94</v>
       </c>
@@ -3038,12 +3139,12 @@
       <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>552</v>
       </c>
@@ -3051,7 +3152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -3059,7 +3160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1101</v>
       </c>
@@ -3067,7 +3168,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1102</v>
       </c>
@@ -3075,7 +3176,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1103</v>
       </c>
@@ -3083,7 +3184,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>1104</v>
       </c>
@@ -3091,7 +3192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>1105</v>
       </c>
@@ -3099,7 +3200,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>1106</v>
       </c>
@@ -3107,7 +3208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>1107</v>
       </c>
@@ -3115,7 +3216,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>1108</v>
       </c>
@@ -3123,7 +3224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>1109</v>
       </c>
@@ -3131,7 +3232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>1110</v>
       </c>
@@ -3139,7 +3240,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>1111</v>
       </c>
@@ -3147,7 +3248,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>1112</v>
       </c>
@@ -3155,7 +3256,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>1113</v>
       </c>
@@ -3163,7 +3264,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>1114</v>
       </c>
@@ -3171,7 +3272,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>1115</v>
       </c>
@@ -3179,7 +3280,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>1116</v>
       </c>
@@ -3187,7 +3288,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>1117</v>
       </c>
@@ -3195,7 +3296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>1118</v>
       </c>
@@ -3203,7 +3304,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>1171</v>
       </c>
@@ -3211,7 +3312,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>1172</v>
       </c>
@@ -3219,7 +3320,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>1173</v>
       </c>
@@ -3227,7 +3328,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>1174</v>
       </c>
@@ -3235,7 +3336,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>1175</v>
       </c>
@@ -3243,7 +3344,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>1201</v>
       </c>
@@ -3251,7 +3352,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>1202</v>
       </c>
@@ -3259,7 +3360,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>1203</v>
       </c>
@@ -3267,7 +3368,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>1204</v>
       </c>
@@ -3275,7 +3376,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>1205</v>
       </c>
@@ -3283,7 +3384,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>1206</v>
       </c>
@@ -3291,7 +3392,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>1207</v>
       </c>
@@ -3299,7 +3400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>1208</v>
       </c>
@@ -3307,7 +3408,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>1209</v>
       </c>
@@ -3315,7 +3416,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>1210</v>
       </c>
@@ -3323,7 +3424,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>1211</v>
       </c>
@@ -3331,7 +3432,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>1212</v>
       </c>
@@ -3339,7 +3440,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>1213</v>
       </c>
@@ -3347,7 +3448,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>1214</v>
       </c>
@@ -3355,7 +3456,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>1215</v>
       </c>
@@ -3363,7 +3464,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>1216</v>
       </c>
@@ -3371,7 +3472,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>1217</v>
       </c>
@@ -3379,7 +3480,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>1218</v>
       </c>
@@ -3387,7 +3488,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>1219</v>
       </c>
@@ -3395,7 +3496,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>1220</v>
       </c>
@@ -3403,7 +3504,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>1221</v>
       </c>
@@ -3411,7 +3512,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>1222</v>
       </c>
@@ -3419,7 +3520,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>1223</v>
       </c>
@@ -3427,7 +3528,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>1224</v>
       </c>
@@ -3435,7 +3536,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>1225</v>
       </c>
@@ -3443,7 +3544,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>1271</v>
       </c>
@@ -3451,7 +3552,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>1272</v>
       </c>
@@ -3459,7 +3560,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>1273</v>
       </c>
@@ -3467,7 +3568,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>1274</v>
       </c>
@@ -3475,7 +3576,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>1275</v>
       </c>
@@ -3483,7 +3584,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>1276</v>
       </c>
@@ -3491,7 +3592,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>1277</v>
       </c>
@@ -3499,7 +3600,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>1278</v>
       </c>
@@ -3507,7 +3608,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>1301</v>
       </c>
@@ -3515,7 +3616,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>1302</v>
       </c>
@@ -3523,7 +3624,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>1303</v>
       </c>
@@ -3531,7 +3632,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>1304</v>
       </c>
@@ -3539,7 +3640,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>1305</v>
       </c>
@@ -3547,7 +3648,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>1306</v>
       </c>
@@ -3555,7 +3656,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>1307</v>
       </c>
@@ -3563,7 +3664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>1308</v>
       </c>
@@ -3571,7 +3672,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>1309</v>
       </c>
@@ -3579,7 +3680,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>1310</v>
       </c>
@@ -3587,7 +3688,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>1311</v>
       </c>
@@ -3595,7 +3696,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>1312</v>
       </c>
@@ -3603,7 +3704,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>1371</v>
       </c>
@@ -3611,7 +3712,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>1372</v>
       </c>
@@ -3619,7 +3720,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>1373</v>
       </c>
@@ -3627,7 +3728,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>1374</v>
       </c>
@@ -3635,7 +3736,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>1375</v>
       </c>
@@ -3643,7 +3744,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>1376</v>
       </c>
@@ -3651,7 +3752,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>1377</v>
       </c>
@@ -3659,7 +3760,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>1401</v>
       </c>
@@ -3667,7 +3768,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>1402</v>
       </c>
@@ -3675,7 +3776,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>1403</v>
       </c>
@@ -3683,7 +3784,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>1404</v>
       </c>
@@ -3691,7 +3792,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>1405</v>
       </c>
@@ -3699,7 +3800,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>1406</v>
       </c>
@@ -3707,7 +3808,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>1407</v>
       </c>
@@ -3715,7 +3816,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>1408</v>
       </c>
@@ -3723,7 +3824,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>1409</v>
       </c>
@@ -3731,7 +3832,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>1410</v>
       </c>
@@ -3739,7 +3840,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>1471</v>
       </c>
@@ -3747,7 +3848,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>1473</v>
       </c>
@@ -3755,7 +3856,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>1501</v>
       </c>
@@ -3763,7 +3864,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>1502</v>
       </c>
@@ -3771,7 +3872,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>1503</v>
       </c>
@@ -3779,7 +3880,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>1504</v>
       </c>
@@ -3787,7 +3888,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>1505</v>
       </c>
@@ -3795,7 +3896,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>1506</v>
       </c>
@@ -3803,7 +3904,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>1507</v>
       </c>
@@ -3811,7 +3912,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>1508</v>
       </c>
@@ -3819,7 +3920,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>1509</v>
       </c>
@@ -3827,7 +3928,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>1571</v>
       </c>
@@ -3835,7 +3936,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>1572</v>
       </c>
@@ -3843,7 +3944,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>1601</v>
       </c>
@@ -3851,7 +3952,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>1602</v>
       </c>
@@ -3859,7 +3960,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>1603</v>
       </c>
@@ -3867,7 +3968,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>1604</v>
       </c>
@@ -3875,7 +3976,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>1605</v>
       </c>
@@ -3883,7 +3984,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>1606</v>
       </c>
@@ -3891,7 +3992,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>1607</v>
       </c>
@@ -3899,7 +4000,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>1608</v>
       </c>
@@ -3907,7 +4008,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>1609</v>
       </c>
@@ -3915,7 +4016,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>1610</v>
       </c>
@@ -3923,7 +4024,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>1611</v>
       </c>
@@ -3931,7 +4032,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>1612</v>
       </c>
@@ -3939,7 +4040,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>1613</v>
       </c>
@@ -3947,7 +4048,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>1671</v>
       </c>
@@ -3955,7 +4056,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>1672</v>
       </c>
@@ -3963,7 +4064,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>1673</v>
       </c>
@@ -3971,7 +4072,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>1674</v>
       </c>
@@ -3979,7 +4080,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>1701</v>
       </c>
@@ -3987,7 +4088,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>1702</v>
       </c>
@@ -3995,7 +4096,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>1703</v>
       </c>
@@ -4003,7 +4104,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>1704</v>
       </c>
@@ -4011,7 +4112,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <v>1705</v>
       </c>
@@ -4019,7 +4120,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>1706</v>
       </c>
@@ -4027,7 +4128,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <v>1707</v>
       </c>
@@ -4035,7 +4136,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>1708</v>
       </c>
@@ -4043,7 +4144,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <v>1709</v>
       </c>
@@ -4051,7 +4152,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>1771</v>
       </c>
@@ -4059,7 +4160,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <v>1801</v>
       </c>
@@ -4067,7 +4168,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>1802</v>
       </c>
@@ -4075,7 +4176,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <v>1803</v>
       </c>
@@ -4083,7 +4184,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>1804</v>
       </c>
@@ -4091,7 +4192,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <v>1805</v>
       </c>
@@ -4099,7 +4200,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <v>1806</v>
       </c>
@@ -4107,7 +4208,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
         <v>1807</v>
       </c>
@@ -4115,7 +4216,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <v>1808</v>
       </c>
@@ -4123,7 +4224,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <v>1809</v>
       </c>
@@ -4131,7 +4232,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <v>1810</v>
       </c>
@@ -4139,7 +4240,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>1811</v>
       </c>
@@ -4147,7 +4248,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
         <v>1812</v>
       </c>
@@ -4155,7 +4256,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>1813</v>
       </c>
@@ -4163,7 +4264,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
         <v>1871</v>
       </c>
@@ -4171,7 +4272,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
         <v>1872</v>
       </c>
@@ -4179,7 +4280,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
         <v>1901</v>
       </c>
@@ -4187,7 +4288,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
         <v>1902</v>
       </c>
@@ -4195,7 +4296,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
         <v>1903</v>
       </c>
@@ -4203,7 +4304,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
         <v>1904</v>
       </c>
@@ -4211,7 +4312,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
         <v>1905</v>
       </c>
@@ -4219,7 +4320,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
         <v>1906</v>
       </c>
@@ -4227,7 +4328,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
         <v>1971</v>
       </c>
@@ -4235,7 +4336,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
         <v>2101</v>
       </c>
@@ -4243,7 +4344,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
         <v>2102</v>
       </c>
@@ -4251,7 +4352,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
         <v>2103</v>
       </c>
@@ -4259,7 +4360,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
         <v>2104</v>
       </c>
@@ -4267,7 +4368,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
         <v>2105</v>
       </c>
@@ -4275,7 +4376,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
         <v>2171</v>
       </c>
@@ -4283,7 +4384,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
         <v>2172</v>
       </c>
@@ -4291,7 +4392,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="4">
         <v>3101</v>
       </c>
@@ -4299,7 +4400,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
         <v>3171</v>
       </c>
@@ -4307,7 +4408,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
         <v>3172</v>
       </c>
@@ -4315,7 +4416,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
         <v>3173</v>
       </c>
@@ -4323,7 +4424,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
         <v>3174</v>
       </c>
@@ -4331,7 +4432,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
         <v>3175</v>
       </c>
@@ -4339,7 +4440,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="4">
         <v>3201</v>
       </c>
@@ -4347,7 +4448,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
         <v>3202</v>
       </c>
@@ -4355,7 +4456,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="4">
         <v>3203</v>
       </c>
@@ -4363,7 +4464,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="4">
         <v>3204</v>
       </c>
@@ -4371,7 +4472,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="4">
         <v>3205</v>
       </c>
@@ -4379,7 +4480,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
         <v>3206</v>
       </c>
@@ -4387,7 +4488,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="4">
         <v>3207</v>
       </c>
@@ -4395,7 +4496,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="4">
         <v>3208</v>
       </c>
@@ -4403,7 +4504,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="4">
         <v>3209</v>
       </c>
@@ -4411,7 +4512,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
         <v>3210</v>
       </c>
@@ -4419,7 +4520,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="4">
         <v>3211</v>
       </c>
@@ -4427,7 +4528,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="4">
         <v>3212</v>
       </c>
@@ -4435,7 +4536,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="4">
         <v>3213</v>
       </c>
@@ -4443,7 +4544,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="4">
         <v>3214</v>
       </c>
@@ -4451,7 +4552,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="4">
         <v>3215</v>
       </c>
@@ -4459,7 +4560,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="4">
         <v>3216</v>
       </c>
@@ -4467,7 +4568,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="4">
         <v>3217</v>
       </c>
@@ -4475,7 +4576,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="4">
         <v>3218</v>
       </c>
@@ -4483,7 +4584,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="4">
         <v>3271</v>
       </c>
@@ -4491,7 +4592,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="4">
         <v>3272</v>
       </c>
@@ -4499,7 +4600,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="4">
         <v>3273</v>
       </c>
@@ -4507,7 +4608,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="4">
         <v>3274</v>
       </c>
@@ -4515,7 +4616,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="4">
         <v>3275</v>
       </c>
@@ -4523,7 +4624,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="4">
         <v>3276</v>
       </c>
@@ -4531,7 +4632,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="4">
         <v>3277</v>
       </c>
@@ -4539,7 +4640,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="4">
         <v>3278</v>
       </c>
@@ -4547,7 +4648,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="4">
         <v>3279</v>
       </c>
@@ -4555,7 +4656,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="4">
         <v>3301</v>
       </c>
@@ -4563,7 +4664,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="4">
         <v>3302</v>
       </c>
@@ -4571,7 +4672,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="4">
         <v>3303</v>
       </c>
@@ -4579,7 +4680,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="4">
         <v>3304</v>
       </c>
@@ -4587,7 +4688,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="4">
         <v>3305</v>
       </c>
@@ -4595,7 +4696,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="4">
         <v>3306</v>
       </c>
@@ -4603,7 +4704,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="4">
         <v>3307</v>
       </c>
@@ -4611,7 +4712,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="4">
         <v>3308</v>
       </c>
@@ -4619,7 +4720,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="4">
         <v>3309</v>
       </c>
@@ -4627,7 +4728,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="4">
         <v>3310</v>
       </c>
@@ -4635,7 +4736,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="4">
         <v>3311</v>
       </c>
@@ -4643,7 +4744,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="4">
         <v>3312</v>
       </c>
@@ -4651,7 +4752,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="4">
         <v>3313</v>
       </c>
@@ -4659,7 +4760,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="4">
         <v>3314</v>
       </c>
@@ -4667,7 +4768,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="4">
         <v>3315</v>
       </c>
@@ -4675,7 +4776,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="4">
         <v>3316</v>
       </c>
@@ -4683,7 +4784,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="4">
         <v>3317</v>
       </c>
@@ -4691,7 +4792,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="4">
         <v>3318</v>
       </c>
@@ -4699,7 +4800,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="4">
         <v>3319</v>
       </c>
@@ -4707,7 +4808,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="4">
         <v>3320</v>
       </c>
@@ -4715,7 +4816,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="4">
         <v>3321</v>
       </c>
@@ -4723,7 +4824,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="4">
         <v>3322</v>
       </c>
@@ -4731,7 +4832,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="4">
         <v>3323</v>
       </c>
@@ -4739,7 +4840,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="4">
         <v>3324</v>
       </c>
@@ -4747,7 +4848,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="4">
         <v>3325</v>
       </c>
@@ -4755,7 +4856,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="4">
         <v>3326</v>
       </c>
@@ -4763,7 +4864,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="4">
         <v>3327</v>
       </c>
@@ -4771,7 +4872,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="4">
         <v>3328</v>
       </c>
@@ -4779,7 +4880,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="4">
         <v>3329</v>
       </c>
@@ -4787,7 +4888,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="4">
         <v>3371</v>
       </c>
@@ -4795,7 +4896,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="4">
         <v>3372</v>
       </c>
@@ -4803,7 +4904,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="4">
         <v>3373</v>
       </c>
@@ -4811,7 +4912,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="4">
         <v>3374</v>
       </c>
@@ -4819,7 +4920,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="4">
         <v>3375</v>
       </c>
@@ -4827,7 +4928,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="4">
         <v>3376</v>
       </c>
@@ -4835,7 +4936,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="4">
         <v>3401</v>
       </c>
@@ -4843,7 +4944,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="4">
         <v>3402</v>
       </c>
@@ -4851,7 +4952,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="4">
         <v>3403</v>
       </c>
@@ -4859,7 +4960,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="4">
         <v>3404</v>
       </c>
@@ -4867,7 +4968,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="4">
         <v>3471</v>
       </c>
@@ -4875,7 +4976,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="4">
         <v>3501</v>
       </c>
@@ -4883,7 +4984,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="4">
         <v>3502</v>
       </c>
@@ -4891,7 +4992,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="4">
         <v>3503</v>
       </c>
@@ -4899,7 +5000,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="4">
         <v>3504</v>
       </c>
@@ -4907,7 +5008,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="4">
         <v>3505</v>
       </c>
@@ -4915,7 +5016,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="4">
         <v>3506</v>
       </c>
@@ -4923,7 +5024,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="4">
         <v>3507</v>
       </c>
@@ -4931,7 +5032,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="4">
         <v>3508</v>
       </c>
@@ -4939,7 +5040,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="4">
         <v>3509</v>
       </c>
@@ -4947,7 +5048,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="4">
         <v>3510</v>
       </c>
@@ -4955,7 +5056,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="4">
         <v>3511</v>
       </c>
@@ -4963,7 +5064,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="4">
         <v>3512</v>
       </c>
@@ -4971,7 +5072,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="4">
         <v>3513</v>
       </c>
@@ -4979,7 +5080,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="4">
         <v>3514</v>
       </c>
@@ -4987,7 +5088,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="4">
         <v>3515</v>
       </c>
@@ -4995,7 +5096,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="4">
         <v>3516</v>
       </c>
@@ -5003,7 +5104,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="4">
         <v>3517</v>
       </c>
@@ -5011,7 +5112,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="4">
         <v>3518</v>
       </c>
@@ -5019,7 +5120,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="4">
         <v>3519</v>
       </c>
@@ -5027,7 +5128,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="4">
         <v>3520</v>
       </c>
@@ -5035,7 +5136,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="4">
         <v>3521</v>
       </c>
@@ -5043,7 +5144,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="4">
         <v>3522</v>
       </c>
@@ -5051,7 +5152,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="4">
         <v>3523</v>
       </c>
@@ -5059,7 +5160,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="4">
         <v>3524</v>
       </c>
@@ -5067,7 +5168,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="4">
         <v>3525</v>
       </c>
@@ -5075,7 +5176,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="4">
         <v>3526</v>
       </c>
@@ -5083,7 +5184,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="4">
         <v>3527</v>
       </c>
@@ -5091,7 +5192,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="4">
         <v>3528</v>
       </c>
@@ -5099,7 +5200,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="4">
         <v>3529</v>
       </c>
@@ -5107,7 +5208,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="4">
         <v>3571</v>
       </c>
@@ -5115,7 +5216,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="4">
         <v>3572</v>
       </c>
@@ -5123,7 +5224,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="4">
         <v>3573</v>
       </c>
@@ -5131,7 +5232,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="4">
         <v>3574</v>
       </c>
@@ -5139,7 +5240,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="4">
         <v>3575</v>
       </c>
@@ -5147,7 +5248,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="4">
         <v>3576</v>
       </c>
@@ -5155,7 +5256,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="4">
         <v>3577</v>
       </c>
@@ -5163,7 +5264,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="4">
         <v>3578</v>
       </c>
@@ -5171,7 +5272,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="4">
         <v>3579</v>
       </c>
@@ -5179,7 +5280,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="4">
         <v>3601</v>
       </c>
@@ -5187,7 +5288,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="4">
         <v>3602</v>
       </c>
@@ -5195,7 +5296,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="4">
         <v>3603</v>
       </c>
@@ -5203,7 +5304,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="4">
         <v>3604</v>
       </c>
@@ -5211,7 +5312,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="4">
         <v>3671</v>
       </c>
@@ -5219,7 +5320,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="4">
         <v>3672</v>
       </c>
@@ -5227,7 +5328,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="4">
         <v>3673</v>
       </c>
@@ -5235,7 +5336,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="4">
         <v>3674</v>
       </c>
@@ -5243,7 +5344,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="4">
         <v>5101</v>
       </c>
@@ -5251,7 +5352,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="4">
         <v>5102</v>
       </c>
@@ -5259,7 +5360,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="4">
         <v>5103</v>
       </c>
@@ -5267,7 +5368,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="4">
         <v>5104</v>
       </c>
@@ -5275,7 +5376,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="4">
         <v>5105</v>
       </c>
@@ -5283,7 +5384,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="4">
         <v>5106</v>
       </c>
@@ -5291,7 +5392,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="4">
         <v>5107</v>
       </c>
@@ -5299,7 +5400,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="4">
         <v>5108</v>
       </c>
@@ -5307,7 +5408,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="4">
         <v>5171</v>
       </c>
@@ -5315,7 +5416,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="4">
         <v>5201</v>
       </c>
@@ -5323,7 +5424,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="4">
         <v>5202</v>
       </c>
@@ -5331,7 +5432,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="4">
         <v>5203</v>
       </c>
@@ -5339,7 +5440,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="4">
         <v>5204</v>
       </c>
@@ -5347,7 +5448,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="4">
         <v>5205</v>
       </c>
@@ -5355,7 +5456,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="4">
         <v>5206</v>
       </c>
@@ -5363,7 +5464,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="4">
         <v>5207</v>
       </c>
@@ -5371,7 +5472,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="4">
         <v>5208</v>
       </c>
@@ -5379,7 +5480,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="4">
         <v>5271</v>
       </c>
@@ -5387,7 +5488,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="4">
         <v>5272</v>
       </c>
@@ -5395,7 +5496,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="4">
         <v>5301</v>
       </c>
@@ -5403,7 +5504,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="4">
         <v>5302</v>
       </c>
@@ -5411,7 +5512,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="4">
         <v>5303</v>
       </c>
@@ -5419,7 +5520,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="4">
         <v>5304</v>
       </c>
@@ -5427,7 +5528,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="4">
         <v>5305</v>
       </c>
@@ -5435,7 +5536,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="4">
         <v>5306</v>
       </c>
@@ -5443,7 +5544,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="4">
         <v>5307</v>
       </c>
@@ -5451,7 +5552,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="4">
         <v>5308</v>
       </c>
@@ -5459,7 +5560,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="4">
         <v>5309</v>
       </c>
@@ -5467,7 +5568,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="4">
         <v>5310</v>
       </c>
@@ -5475,7 +5576,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="4">
         <v>5311</v>
       </c>
@@ -5483,7 +5584,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="4">
         <v>5312</v>
       </c>
@@ -5491,7 +5592,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="4">
         <v>5313</v>
       </c>
@@ -5499,7 +5600,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="4">
         <v>5314</v>
       </c>
@@ -5507,7 +5608,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="4">
         <v>5315</v>
       </c>
@@ -5515,7 +5616,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="4">
         <v>5316</v>
       </c>
@@ -5523,7 +5624,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="4">
         <v>5317</v>
       </c>
@@ -5531,7 +5632,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="4">
         <v>5318</v>
       </c>
@@ -5539,7 +5640,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="4">
         <v>5319</v>
       </c>
@@ -5547,7 +5648,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="4">
         <v>5320</v>
       </c>
@@ -5555,7 +5656,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="4">
         <v>5321</v>
       </c>
@@ -5563,7 +5664,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="4">
         <v>5371</v>
       </c>
@@ -5571,7 +5672,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="4">
         <v>6101</v>
       </c>
@@ -5579,7 +5680,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="4">
         <v>6102</v>
       </c>
@@ -5587,7 +5688,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="4">
         <v>6103</v>
       </c>
@@ -5595,7 +5696,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="4">
         <v>6104</v>
       </c>
@@ -5603,7 +5704,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="4">
         <v>6105</v>
       </c>
@@ -5611,7 +5712,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="4">
         <v>6106</v>
       </c>
@@ -5619,7 +5720,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="4">
         <v>6107</v>
       </c>
@@ -5627,7 +5728,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="4">
         <v>6108</v>
       </c>
@@ -5635,7 +5736,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="4">
         <v>6109</v>
       </c>
@@ -5643,7 +5744,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="4">
         <v>6110</v>
       </c>
@@ -5651,7 +5752,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="4">
         <v>6111</v>
       </c>
@@ -5659,7 +5760,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="4">
         <v>6112</v>
       </c>
@@ -5667,7 +5768,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="4">
         <v>6171</v>
       </c>
@@ -5675,7 +5776,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="4">
         <v>6172</v>
       </c>
@@ -5683,7 +5784,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="4">
         <v>6201</v>
       </c>
@@ -5691,7 +5792,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="4">
         <v>6202</v>
       </c>
@@ -5699,7 +5800,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="4">
         <v>6203</v>
       </c>
@@ -5707,7 +5808,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="4">
         <v>6204</v>
       </c>
@@ -5715,7 +5816,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="4">
         <v>6205</v>
       </c>
@@ -5723,7 +5824,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="4">
         <v>6206</v>
       </c>
@@ -5731,7 +5832,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="4">
         <v>6207</v>
       </c>
@@ -5739,7 +5840,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="4">
         <v>6208</v>
       </c>
@@ -5747,7 +5848,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="4">
         <v>6209</v>
       </c>
@@ -5755,7 +5856,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="4">
         <v>6210</v>
       </c>
@@ -5763,7 +5864,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="4">
         <v>6211</v>
       </c>
@@ -5771,7 +5872,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="4">
         <v>6212</v>
       </c>
@@ -5779,7 +5880,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="4">
         <v>6213</v>
       </c>
@@ -5787,7 +5888,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="4">
         <v>6271</v>
       </c>
@@ -5795,7 +5896,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="4">
         <v>6301</v>
       </c>
@@ -5803,7 +5904,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="4">
         <v>6302</v>
       </c>
@@ -5811,7 +5912,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="4">
         <v>6303</v>
       </c>
@@ -5819,7 +5920,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="4">
         <v>6304</v>
       </c>
@@ -5827,7 +5928,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="4">
         <v>6305</v>
       </c>
@@ -5835,7 +5936,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="4">
         <v>6306</v>
       </c>
@@ -5843,7 +5944,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="4">
         <v>6307</v>
       </c>
@@ -5851,7 +5952,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="4">
         <v>6308</v>
       </c>
@@ -5859,7 +5960,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="4">
         <v>6309</v>
       </c>
@@ -5867,7 +5968,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="4">
         <v>6310</v>
       </c>
@@ -5875,7 +5976,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="4">
         <v>6311</v>
       </c>
@@ -5883,7 +5984,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="4">
         <v>6371</v>
       </c>
@@ -5891,7 +5992,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="4">
         <v>6372</v>
       </c>
@@ -5899,7 +6000,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="4">
         <v>6401</v>
       </c>
@@ -5907,7 +6008,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="4">
         <v>6402</v>
       </c>
@@ -5915,7 +6016,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="4">
         <v>6403</v>
       </c>
@@ -5923,7 +6024,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="4">
         <v>6404</v>
       </c>
@@ -5931,7 +6032,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="4">
         <v>6405</v>
       </c>
@@ -5939,7 +6040,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="4">
         <v>6409</v>
       </c>
@@ -5947,7 +6048,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="4">
         <v>6411</v>
       </c>
@@ -5955,7 +6056,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="4">
         <v>6471</v>
       </c>
@@ -5963,7 +6064,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="4">
         <v>6472</v>
       </c>
@@ -5971,7 +6072,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="4">
         <v>6474</v>
       </c>
@@ -5979,7 +6080,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="4">
         <v>6501</v>
       </c>
@@ -5987,7 +6088,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="4">
         <v>6502</v>
       </c>
@@ -5995,7 +6096,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="4">
         <v>6503</v>
       </c>
@@ -6003,7 +6104,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="4">
         <v>6504</v>
       </c>
@@ -6011,7 +6112,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="4">
         <v>6571</v>
       </c>
@@ -6019,7 +6120,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="4">
         <v>7101</v>
       </c>
@@ -6027,7 +6128,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="4">
         <v>7102</v>
       </c>
@@ -6035,7 +6136,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="4">
         <v>7103</v>
       </c>
@@ -6043,7 +6144,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="4">
         <v>7104</v>
       </c>
@@ -6051,7 +6152,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="4">
         <v>7105</v>
       </c>
@@ -6059,7 +6160,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="4">
         <v>7106</v>
       </c>
@@ -6067,7 +6168,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="4">
         <v>7107</v>
       </c>
@@ -6075,7 +6176,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="4">
         <v>7108</v>
       </c>
@@ -6083,7 +6184,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="4">
         <v>7109</v>
       </c>
@@ -6091,7 +6192,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="4">
         <v>7110</v>
       </c>
@@ -6099,7 +6200,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="4">
         <v>7111</v>
       </c>
@@ -6107,7 +6208,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="4">
         <v>7171</v>
       </c>
@@ -6115,7 +6216,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="4">
         <v>7172</v>
       </c>
@@ -6123,7 +6224,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="4">
         <v>7173</v>
       </c>
@@ -6131,7 +6232,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="4">
         <v>7174</v>
       </c>
@@ -6139,7 +6240,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="4">
         <v>7201</v>
       </c>
@@ -6147,7 +6248,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="4">
         <v>7202</v>
       </c>
@@ -6155,7 +6256,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="4">
         <v>7203</v>
       </c>
@@ -6163,7 +6264,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="4">
         <v>7204</v>
       </c>
@@ -6171,7 +6272,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="4">
         <v>7205</v>
       </c>
@@ -6179,7 +6280,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" s="4">
         <v>7206</v>
       </c>
@@ -6187,7 +6288,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" s="4">
         <v>7207</v>
       </c>
@@ -6195,7 +6296,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="4">
         <v>7208</v>
       </c>
@@ -6203,7 +6304,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="4">
         <v>7209</v>
       </c>
@@ -6211,7 +6312,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="4">
         <v>7210</v>
       </c>
@@ -6219,7 +6320,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" s="4">
         <v>7211</v>
       </c>
@@ -6227,7 +6328,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="4">
         <v>7212</v>
       </c>
@@ -6235,7 +6336,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" s="4">
         <v>7271</v>
       </c>
@@ -6243,7 +6344,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="4">
         <v>7301</v>
       </c>
@@ -6251,7 +6352,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="4">
         <v>7302</v>
       </c>
@@ -6259,7 +6360,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="4">
         <v>7303</v>
       </c>
@@ -6267,7 +6368,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="4">
         <v>7304</v>
       </c>
@@ -6275,7 +6376,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="4">
         <v>7305</v>
       </c>
@@ -6283,7 +6384,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" s="4">
         <v>7306</v>
       </c>
@@ -6291,7 +6392,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" s="4">
         <v>7307</v>
       </c>
@@ -6299,7 +6400,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="4">
         <v>7308</v>
       </c>
@@ -6307,7 +6408,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="4">
         <v>7309</v>
       </c>
@@ -6315,7 +6416,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" s="4">
         <v>7310</v>
       </c>
@@ -6323,7 +6424,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="4">
         <v>7311</v>
       </c>
@@ -6331,7 +6432,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="4">
         <v>7312</v>
       </c>
@@ -6339,7 +6440,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="4">
         <v>7313</v>
       </c>
@@ -6347,7 +6448,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="4">
         <v>7314</v>
       </c>
@@ -6355,7 +6456,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" s="4">
         <v>7315</v>
       </c>
@@ -6363,7 +6464,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" s="4">
         <v>7316</v>
       </c>
@@ -6371,7 +6472,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="4">
         <v>7317</v>
       </c>
@@ -6379,7 +6480,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="4">
         <v>7318</v>
       </c>
@@ -6387,7 +6488,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="4">
         <v>7322</v>
       </c>
@@ -6395,7 +6496,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="4">
         <v>7325</v>
       </c>
@@ -6403,7 +6504,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="4">
         <v>7326</v>
       </c>
@@ -6411,7 +6512,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="4">
         <v>7371</v>
       </c>
@@ -6419,7 +6520,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="4">
         <v>7372</v>
       </c>
@@ -6427,7 +6528,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="4">
         <v>7373</v>
       </c>
@@ -6435,7 +6536,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="4">
         <v>7401</v>
       </c>
@@ -6443,7 +6544,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="4">
         <v>7402</v>
       </c>
@@ -6451,7 +6552,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="4">
         <v>7403</v>
       </c>
@@ -6459,7 +6560,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="4">
         <v>7404</v>
       </c>
@@ -6467,7 +6568,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="4">
         <v>7405</v>
       </c>
@@ -6475,7 +6576,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="4">
         <v>7406</v>
       </c>
@@ -6483,7 +6584,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="4">
         <v>7407</v>
       </c>
@@ -6491,7 +6592,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="4">
         <v>7408</v>
       </c>
@@ -6499,7 +6600,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="4">
         <v>7409</v>
       </c>
@@ -6507,7 +6608,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="4">
         <v>7410</v>
       </c>
@@ -6515,7 +6616,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="4">
         <v>7411</v>
       </c>
@@ -6523,7 +6624,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" s="4">
         <v>7412</v>
       </c>
@@ -6531,7 +6632,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" s="4">
         <v>7413</v>
       </c>
@@ -6539,7 +6640,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" s="4">
         <v>7414</v>
       </c>
@@ -6547,7 +6648,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="4">
         <v>7415</v>
       </c>
@@ -6555,7 +6656,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" s="4">
         <v>7471</v>
       </c>
@@ -6563,7 +6664,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" s="4">
         <v>7472</v>
       </c>
@@ -6571,7 +6672,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" s="4">
         <v>7501</v>
       </c>
@@ -6579,7 +6680,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="4">
         <v>7502</v>
       </c>
@@ -6587,7 +6688,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" s="4">
         <v>7503</v>
       </c>
@@ -6595,7 +6696,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" s="4">
         <v>7504</v>
       </c>
@@ -6603,7 +6704,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" s="4">
         <v>7505</v>
       </c>
@@ -6611,7 +6712,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" s="4">
         <v>7571</v>
       </c>
@@ -6619,7 +6720,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" s="4">
         <v>7601</v>
       </c>
@@ -6627,7 +6728,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" s="4">
         <v>7602</v>
       </c>
@@ -6635,7 +6736,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" s="4">
         <v>7603</v>
       </c>
@@ -6643,7 +6744,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" s="4">
         <v>7604</v>
       </c>
@@ -6651,7 +6752,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" s="4">
         <v>7605</v>
       </c>
@@ -6659,7 +6760,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" s="4">
         <v>7606</v>
       </c>
@@ -6667,7 +6768,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" s="4">
         <v>8101</v>
       </c>
@@ -6675,7 +6776,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" s="4">
         <v>8102</v>
       </c>
@@ -6683,7 +6784,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" s="4">
         <v>8103</v>
       </c>
@@ -6691,7 +6792,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" s="4">
         <v>8104</v>
       </c>
@@ -6699,7 +6800,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" s="4">
         <v>8105</v>
       </c>
@@ -6707,7 +6808,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" s="4">
         <v>8106</v>
       </c>
@@ -6715,7 +6816,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" s="4">
         <v>8107</v>
       </c>
@@ -6723,7 +6824,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" s="4">
         <v>8108</v>
       </c>
@@ -6731,7 +6832,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" s="4">
         <v>8109</v>
       </c>
@@ -6739,7 +6840,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" s="4">
         <v>8171</v>
       </c>
@@ -6747,7 +6848,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" s="4">
         <v>8172</v>
       </c>
@@ -6755,7 +6856,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" s="4">
         <v>8201</v>
       </c>
@@ -6763,7 +6864,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" s="4">
         <v>8202</v>
       </c>
@@ -6771,7 +6872,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" s="4">
         <v>8203</v>
       </c>
@@ -6779,7 +6880,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" s="4">
         <v>8204</v>
       </c>
@@ -6787,7 +6888,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" s="4">
         <v>8205</v>
       </c>
@@ -6795,7 +6896,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" s="4">
         <v>8206</v>
       </c>
@@ -6803,7 +6904,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" s="4">
         <v>8207</v>
       </c>
@@ -6811,7 +6912,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" s="4">
         <v>8208</v>
       </c>
@@ -6819,7 +6920,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" s="4">
         <v>8271</v>
       </c>
@@ -6827,7 +6928,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" s="4">
         <v>8272</v>
       </c>
@@ -6835,7 +6936,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" s="4">
         <v>9101</v>
       </c>
@@ -6843,7 +6944,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" s="4">
         <v>9102</v>
       </c>
@@ -6851,7 +6952,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" s="4">
         <v>9103</v>
       </c>
@@ -6859,7 +6960,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" s="4">
         <v>9104</v>
       </c>
@@ -6867,7 +6968,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" s="4">
         <v>9105</v>
       </c>
@@ -6875,7 +6976,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" s="4">
         <v>9106</v>
       </c>
@@ -6883,7 +6984,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" s="4">
         <v>9107</v>
       </c>
@@ -6891,7 +6992,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" s="4">
         <v>9108</v>
       </c>
@@ -6899,7 +7000,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" s="4">
         <v>9109</v>
       </c>
@@ -6907,7 +7008,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" s="4">
         <v>9110</v>
       </c>
@@ -6915,7 +7016,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" s="4">
         <v>9111</v>
       </c>
@@ -6923,7 +7024,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" s="4">
         <v>9112</v>
       </c>
@@ -6931,7 +7032,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" s="4">
         <v>9171</v>
       </c>
@@ -6939,7 +7040,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" s="4">
         <v>9401</v>
       </c>
@@ -6947,7 +7048,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" s="4">
         <v>9402</v>
       </c>
@@ -6955,7 +7056,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" s="4">
         <v>9403</v>
       </c>
@@ -6963,7 +7064,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" s="4">
         <v>9404</v>
       </c>
@@ -6971,7 +7072,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" s="4">
         <v>9408</v>
       </c>
@@ -6979,7 +7080,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" s="4">
         <v>9409</v>
       </c>
@@ -6987,7 +7088,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" s="4">
         <v>9410</v>
       </c>
@@ -6995,7 +7096,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" s="4">
         <v>9411</v>
       </c>
@@ -7003,7 +7104,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" s="4">
         <v>9412</v>
       </c>
@@ -7011,7 +7112,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" s="4">
         <v>9413</v>
       </c>
@@ -7019,7 +7120,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" s="4">
         <v>9414</v>
       </c>
@@ -7027,7 +7128,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" s="4">
         <v>9415</v>
       </c>
@@ -7035,7 +7136,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" s="4">
         <v>9416</v>
       </c>
@@ -7043,7 +7144,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" s="4">
         <v>9417</v>
       </c>
@@ -7051,7 +7152,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" s="4">
         <v>9418</v>
       </c>
@@ -7059,7 +7160,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" s="4">
         <v>9419</v>
       </c>
@@ -7067,7 +7168,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" s="4">
         <v>9420</v>
       </c>
@@ -7075,7 +7176,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" s="4">
         <v>9426</v>
       </c>
@@ -7083,7 +7184,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" s="4">
         <v>9427</v>
       </c>
@@ -7091,7 +7192,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" s="4">
         <v>9428</v>
       </c>
@@ -7099,7 +7200,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" s="4">
         <v>9429</v>
       </c>
@@ -7107,7 +7208,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" s="4">
         <v>9430</v>
       </c>
@@ -7115,7 +7216,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" s="4">
         <v>9431</v>
       </c>
@@ -7123,7 +7224,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" s="4">
         <v>9432</v>
       </c>
@@ -7131,7 +7232,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" s="4">
         <v>9433</v>
       </c>
@@ -7139,7 +7240,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" s="4">
         <v>9434</v>
       </c>
@@ -7147,7 +7248,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" s="4">
         <v>9435</v>
       </c>
@@ -7155,7 +7256,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A515" s="4">
         <v>9436</v>
       </c>
@@ -7163,7 +7264,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" s="4">
         <v>9471</v>
       </c>
@@ -7187,12 +7288,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>552</v>
       </c>
@@ -7200,7 +7301,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -7208,7 +7309,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -7216,15 +7317,15 @@
         <v>586</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
     </row>
@@ -7241,12 +7342,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>552</v>
       </c>
@@ -7254,7 +7355,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -7262,7 +7363,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -7270,15 +7371,15 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
     </row>
@@ -7292,15 +7393,15 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>552</v>
       </c>
@@ -7308,7 +7409,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -7316,7 +7417,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -7324,17 +7425,198 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20C52F6-2ABC-43CA-8BF5-EC1AF0C5065F}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.08203125" customWidth="1"/>
+    <col min="2" max="2" width="18.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F9B317-9C72-4C9C-AB05-B962382BAB91}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>605</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
